--- a/data/trans_orig/P11_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P11_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3827</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>943</v>
+        <v>960</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9196</v>
+        <v>9273</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007745186654202316</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001908192845620739</v>
+        <v>0.001942477816491826</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01861315382553694</v>
+        <v>0.01876912721406323</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>3830</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>990</v>
+        <v>1007</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8798</v>
+        <v>9073</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.008191767735403609</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002117027330041083</v>
+        <v>0.00215447997136708</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01882012437021106</v>
+        <v>0.01940749554038889</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>7656</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3668</v>
+        <v>3626</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14331</v>
+        <v>15092</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007962306036082252</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003814158391733307</v>
+        <v>0.003770647699264538</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01490444089961355</v>
+        <v>0.01569524690125712</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>490237</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>484868</v>
+        <v>484791</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>493121</v>
+        <v>493104</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9922548133457977</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.981386846174463</v>
+        <v>0.9812308727859367</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9980918071543793</v>
+        <v>0.9980575221835082</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>485</v>
@@ -836,19 +836,19 @@
         <v>463659</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>458691</v>
+        <v>458416</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>466499</v>
+        <v>466482</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9918082322645964</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.981179875629789</v>
+        <v>0.980592504459611</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.997882972669959</v>
+        <v>0.9978455200286329</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>980</v>
@@ -857,19 +857,19 @@
         <v>953897</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>947222</v>
+        <v>946461</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>957885</v>
+        <v>957927</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9920376939639177</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9850955591003863</v>
+        <v>0.9843047530987427</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9961858416082667</v>
+        <v>0.9962293523007354</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>15069</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8168</v>
+        <v>8468</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25718</v>
+        <v>25072</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02048890240778062</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01110549663488039</v>
+        <v>0.01151278377119994</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03496708497241861</v>
+        <v>0.03408840102982269</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -982,19 +982,19 @@
         <v>15085</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8450</v>
+        <v>8630</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24868</v>
+        <v>23988</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02411678430706324</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01350947492767751</v>
+        <v>0.01379713323599375</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0397576055600426</v>
+        <v>0.03835076883761179</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -1003,19 +1003,19 @@
         <v>30154</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20676</v>
+        <v>20716</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>42896</v>
+        <v>44231</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02215624039518076</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01519176325273311</v>
+        <v>0.01522130206934597</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03151832409514782</v>
+        <v>0.0324995608982381</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>720420</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>709771</v>
+        <v>710417</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>727321</v>
+        <v>727021</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9795110975922193</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9650329150275809</v>
+        <v>0.9659115989701774</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9888945033651195</v>
+        <v>0.9884872162288001</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>577</v>
@@ -1053,19 +1053,19 @@
         <v>610409</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>600626</v>
+        <v>601506</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>617044</v>
+        <v>616864</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9758832156929368</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9602423944399573</v>
+        <v>0.9616492311623881</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9864905250723223</v>
+        <v>0.9862028667640057</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1266</v>
@@ -1074,19 +1074,19 @@
         <v>1330828</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1318086</v>
+        <v>1316751</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1340306</v>
+        <v>1340266</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9778437596048193</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9684816759048517</v>
+        <v>0.9675004391017621</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9848082367472667</v>
+        <v>0.9847786979306541</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11886</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5744</v>
+        <v>6364</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19883</v>
+        <v>21033</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01860993455544157</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008993555972038632</v>
+        <v>0.009964779634179671</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03113158236734667</v>
+        <v>0.0329323303994185</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1199,19 +1199,19 @@
         <v>16932</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10079</v>
+        <v>9996</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27318</v>
+        <v>27617</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02454783689135777</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0146125832935545</v>
+        <v>0.01449273838549383</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03960620099050919</v>
+        <v>0.04003951892444199</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1220,19 +1220,19 @@
         <v>28817</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19803</v>
+        <v>19275</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40903</v>
+        <v>42007</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0216930401883849</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01490739889422945</v>
+        <v>0.01450982632200936</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03079101080417197</v>
+        <v>0.03162212763426506</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>626782</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>618785</v>
+        <v>617635</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>632924</v>
+        <v>632304</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9813900654445584</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9688684176326535</v>
+        <v>0.9670676696005814</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9910064440279615</v>
+        <v>0.9900352203658204</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>642</v>
@@ -1270,19 +1270,19 @@
         <v>672812</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>662426</v>
+        <v>662127</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>679665</v>
+        <v>679748</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9754521631086422</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9603937990094906</v>
+        <v>0.959960481075558</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9853874167064454</v>
+        <v>0.9855072616145062</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1244</v>
@@ -1291,19 +1291,19 @@
         <v>1299595</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1287509</v>
+        <v>1286405</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1308609</v>
+        <v>1309137</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9783069598116151</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9692089891958281</v>
+        <v>0.9683778723657352</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9850926011057706</v>
+        <v>0.9854901736779906</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>14916</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8616</v>
+        <v>8784</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23665</v>
+        <v>23078</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02873142541893669</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01659571718758117</v>
+        <v>0.01692011017163769</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04558381363978405</v>
+        <v>0.04445319766245121</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -1416,19 +1416,19 @@
         <v>23349</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15139</v>
+        <v>15374</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33574</v>
+        <v>35041</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04528208531067596</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02935894787740584</v>
+        <v>0.02981479509627663</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06511120715969554</v>
+        <v>0.0679567144668921</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -1437,19 +1437,19 @@
         <v>38265</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27511</v>
+        <v>26765</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52035</v>
+        <v>50232</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03697872504437644</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02658649178050788</v>
+        <v>0.02586563778730499</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05028601115398534</v>
+        <v>0.04854354168334164</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>504231</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>495482</v>
+        <v>496069</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>510531</v>
+        <v>510363</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9712685745810633</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.954416186360216</v>
+        <v>0.9555468023375489</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9834042828124189</v>
+        <v>0.9830798898283626</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>479</v>
@@ -1487,19 +1487,19 @@
         <v>492293</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>482068</v>
+        <v>480601</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>500503</v>
+        <v>500268</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9547179146893241</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9348887928403045</v>
+        <v>0.9320432855331079</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9706410521225942</v>
+        <v>0.9701852049037234</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>948</v>
@@ -1508,19 +1508,19 @@
         <v>996524</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>982754</v>
+        <v>984557</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1007278</v>
+        <v>1008024</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9630212749556236</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9497139888460145</v>
+        <v>0.9514564583166584</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9734135082194918</v>
+        <v>0.974134362212695</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>20350</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13067</v>
+        <v>13149</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30370</v>
+        <v>30097</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05262230422055338</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03379066021828643</v>
+        <v>0.03400143649381857</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07853546782350181</v>
+        <v>0.07782780022270178</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>24</v>
@@ -1633,19 +1633,19 @@
         <v>24340</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15826</v>
+        <v>16559</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34932</v>
+        <v>35591</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06024850691346836</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0391754010223195</v>
+        <v>0.04098837308857982</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08646935675828235</v>
+        <v>0.08809929906428811</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>46</v>
@@ -1654,19 +1654,19 @@
         <v>44689</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33331</v>
+        <v>33815</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60882</v>
+        <v>57951</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05651871814656077</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04215395858377478</v>
+        <v>0.0427658709999743</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0769979024886028</v>
+        <v>0.07329127139381396</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>366360</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>356340</v>
+        <v>356613</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>373643</v>
+        <v>373561</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9473776957794466</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9214645321764984</v>
+        <v>0.9221721997772983</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9662093397817136</v>
+        <v>0.9659985635061813</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>372</v>
@@ -1704,19 +1704,19 @@
         <v>379646</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>369054</v>
+        <v>368395</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>388160</v>
+        <v>387427</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9397514930865316</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9135306432417175</v>
+        <v>0.9119007009357117</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9608245989776802</v>
+        <v>0.9590116269114201</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>742</v>
@@ -1725,19 +1725,19 @@
         <v>746007</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>729814</v>
+        <v>732745</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>757365</v>
+        <v>756881</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9434812818534393</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9230020975113969</v>
+        <v>0.926708728606186</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9578460414162251</v>
+        <v>0.9572341290000257</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>21543</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13187</v>
+        <v>13117</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32189</v>
+        <v>31085</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07362978627159</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04507260815547977</v>
+        <v>0.04483158867009253</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1100161854917331</v>
+        <v>0.1062422702539095</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -1850,19 +1850,19 @@
         <v>37576</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27262</v>
+        <v>27867</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>49411</v>
+        <v>49551</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1095734290360217</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07949498554601364</v>
+        <v>0.08126044094917632</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1440835560462897</v>
+        <v>0.1444902574930451</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -1871,19 +1871,19 @@
         <v>59119</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46415</v>
+        <v>44969</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>74007</v>
+        <v>73776</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09302548641376293</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07303492292095184</v>
+        <v>0.07075945316804914</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1164513549506546</v>
+        <v>0.1160886768280847</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>271040</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>260394</v>
+        <v>261498</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>279396</v>
+        <v>279466</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.92637021372841</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8899838145082668</v>
+        <v>0.8937577297460905</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9549273918445202</v>
+        <v>0.9551684113299073</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>331</v>
@@ -1921,19 +1921,19 @@
         <v>305358</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>293523</v>
+        <v>293383</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>315672</v>
+        <v>315067</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8904265709639783</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8559164439537102</v>
+        <v>0.8555097425069549</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9205050144539864</v>
+        <v>0.9187395590508236</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>613</v>
@@ -1942,19 +1942,19 @@
         <v>576398</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>561510</v>
+        <v>561741</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>589102</v>
+        <v>590548</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.906974513586237</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8835486450493454</v>
+        <v>0.8839113231719152</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9269650770790481</v>
+        <v>0.9292405468319508</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>27297</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19082</v>
+        <v>18721</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37686</v>
+        <v>38401</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1300580904033522</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09091763578095946</v>
+        <v>0.08919747512698227</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1795548556301889</v>
+        <v>0.1829614698178002</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>48</v>
@@ -2067,19 +2067,19 @@
         <v>54468</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40584</v>
+        <v>41610</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>69069</v>
+        <v>69807</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1631220798140016</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1215437060184558</v>
+        <v>0.1246136755970638</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2068512107838768</v>
+        <v>0.2090609622080666</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>76</v>
@@ -2088,19 +2088,19 @@
         <v>81765</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>65776</v>
+        <v>65592</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>99132</v>
+        <v>99936</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1503606153445917</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1209581317177061</v>
+        <v>0.1206205277909826</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1822988769096262</v>
+        <v>0.1837765338542557</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>182586</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>172197</v>
+        <v>171482</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>190801</v>
+        <v>191162</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8699419095966477</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8204451443698112</v>
+        <v>0.8170385301822007</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9090823642190407</v>
+        <v>0.910802524873018</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>242</v>
@@ -2138,19 +2138,19 @@
         <v>279440</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>264839</v>
+        <v>264101</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>293324</v>
+        <v>292298</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8368779201859984</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7931487892161233</v>
+        <v>0.7909390377919335</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8784562939815442</v>
+        <v>0.8753863244029364</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>434</v>
@@ -2159,19 +2159,19 @@
         <v>462026</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>444659</v>
+        <v>443855</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>478015</v>
+        <v>478199</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8496393846554082</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8177011230903745</v>
+        <v>0.8162234661457447</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8790418682822939</v>
+        <v>0.8793794722090174</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>114887</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>96722</v>
+        <v>95271</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>139812</v>
+        <v>136638</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03506340139130117</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02951964134194695</v>
+        <v>0.02907678024919414</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04267059817343825</v>
+        <v>0.0417017611876492</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>169</v>
@@ -2284,19 +2284,19 @@
         <v>175579</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>149999</v>
+        <v>151497</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>201562</v>
+        <v>202829</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05195888329877429</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04438887615279032</v>
+        <v>0.04483233428417258</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05964776198267376</v>
+        <v>0.06002293027141101</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>284</v>
@@ -2305,19 +2305,19 @@
         <v>290466</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>259187</v>
+        <v>259980</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>325241</v>
+        <v>327296</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04364143502619839</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03894189837299921</v>
+        <v>0.03906096170145536</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04886617916244719</v>
+        <v>0.04917504851820129</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3161656</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3136731</v>
+        <v>3139905</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3179821</v>
+        <v>3181272</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9649365986086988</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9573294018265623</v>
+        <v>0.958298238812351</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.970480358658053</v>
+        <v>0.970923219750806</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3128</v>
@@ -2355,19 +2355,19 @@
         <v>3203618</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3177635</v>
+        <v>3176368</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3229198</v>
+        <v>3227700</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9480411167012257</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9403522380173264</v>
+        <v>0.9399770697285891</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9556111238472099</v>
+        <v>0.9551676657158275</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6227</v>
@@ -2376,19 +2376,19 @@
         <v>6365275</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6330500</v>
+        <v>6328445</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6396554</v>
+        <v>6395761</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9563585649738016</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9511338208375529</v>
+        <v>0.950824951481799</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9610581016270013</v>
+        <v>0.9609390382985447</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>4109</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>929</v>
+        <v>944</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10159</v>
+        <v>10288</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009103822902603715</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002057699540749731</v>
+        <v>0.002091472856269118</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02250844271559514</v>
+        <v>0.02279516121915798</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2744,19 +2744,19 @@
         <v>9941</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5129</v>
+        <v>4931</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18000</v>
+        <v>17876</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0231071034994884</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0119218019318054</v>
+        <v>0.01146120674741014</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04183808299871505</v>
+        <v>0.04155074151637139</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -2765,19 +2765,19 @@
         <v>14050</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7900</v>
+        <v>8795</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23854</v>
+        <v>23847</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01593780671732298</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008961235109376707</v>
+        <v>0.009976243507168603</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02705904379984486</v>
+        <v>0.02705042375473631</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>447230</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>441180</v>
+        <v>441051</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>450410</v>
+        <v>450395</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9908961770973963</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.977491557284405</v>
+        <v>0.977204838780842</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9979423004592503</v>
+        <v>0.9979085271437309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>411</v>
@@ -2815,19 +2815,19 @@
         <v>420289</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>412230</v>
+        <v>412354</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>425101</v>
+        <v>425299</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9768928965005116</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9581619170012846</v>
+        <v>0.9584492584836286</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9880781980681945</v>
+        <v>0.9885387932525899</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>850</v>
@@ -2836,19 +2836,19 @@
         <v>867519</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>857715</v>
+        <v>857722</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>873669</v>
+        <v>872774</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9840621932826771</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9729409562001552</v>
+        <v>0.9729495762452637</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9910387648906233</v>
+        <v>0.9900237564928315</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>12743</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6622</v>
+        <v>6763</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23002</v>
+        <v>21760</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01869155483139142</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009713516991001122</v>
+        <v>0.009919848274132064</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03373894570994972</v>
+        <v>0.03191702816275105</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -2961,19 +2961,19 @@
         <v>8736</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3865</v>
+        <v>4583</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17175</v>
+        <v>17792</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01433770553048086</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006343627764747224</v>
+        <v>0.007522191797035993</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02818929316782766</v>
+        <v>0.02920091360433635</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -2982,19 +2982,19 @@
         <v>21479</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13947</v>
+        <v>12022</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33342</v>
+        <v>31368</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01663684112945609</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01080296014054795</v>
+        <v>0.009311468561868742</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02582535251839273</v>
+        <v>0.02429645075368814</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>669019</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>658760</v>
+        <v>660002</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>675140</v>
+        <v>674999</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9813084451686086</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9662610542900504</v>
+        <v>0.968082971837249</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9902864830089989</v>
+        <v>0.9900801517258679</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>562</v>
@@ -3032,19 +3032,19 @@
         <v>600547</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>592108</v>
+        <v>591491</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>605418</v>
+        <v>604700</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9856622944695191</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9718107068321724</v>
+        <v>0.9707990863956636</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9936563722352528</v>
+        <v>0.9924778082029638</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1213</v>
@@ -3053,19 +3053,19 @@
         <v>1269566</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1257703</v>
+        <v>1259677</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1277098</v>
+        <v>1279023</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9833631588705439</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9741746474816073</v>
+        <v>0.9757035492463119</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9891970398594522</v>
+        <v>0.9906885314381316</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>17244</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10148</v>
+        <v>10179</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27852</v>
+        <v>27034</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02539921707769846</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01494742439956326</v>
+        <v>0.01499278643182317</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04102386740898598</v>
+        <v>0.03981867150577983</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -3178,19 +3178,19 @@
         <v>40425</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28651</v>
+        <v>29025</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54573</v>
+        <v>55532</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05710062001282213</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04046994387260117</v>
+        <v>0.04099847784813102</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07708478440145451</v>
+        <v>0.07844034918344024</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -3199,19 +3199,19 @@
         <v>57669</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42749</v>
+        <v>44002</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>74432</v>
+        <v>74614</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04158176238720698</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03082364117107034</v>
+        <v>0.03172725235962846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05366879588416157</v>
+        <v>0.05379969307643159</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>661677</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>651069</v>
+        <v>651887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>668773</v>
+        <v>668742</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9746007829223016</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.958976132591014</v>
+        <v>0.9601813284942201</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9850525756004366</v>
+        <v>0.9850072135681768</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>627</v>
@@ -3249,19 +3249,19 @@
         <v>667531</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>653383</v>
+        <v>652424</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>679305</v>
+        <v>678931</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9428993799871779</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9229152155985455</v>
+        <v>0.9215596508165598</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9595300561273989</v>
+        <v>0.9590015221518691</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1259</v>
@@ -3270,19 +3270,19 @@
         <v>1329208</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1312445</v>
+        <v>1312263</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1344128</v>
+        <v>1342875</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.958418237612793</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9463312041158384</v>
+        <v>0.9462003069235684</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9691763588289296</v>
+        <v>0.9682727476403715</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>27535</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17921</v>
+        <v>17934</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39452</v>
+        <v>40944</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04486863696457055</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02920273631576502</v>
+        <v>0.02922297921341897</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06428690634538003</v>
+        <v>0.06671820878222544</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -3395,19 +3395,19 @@
         <v>37147</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26065</v>
+        <v>26256</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>51085</v>
+        <v>52097</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06028455487454484</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04230032588735843</v>
+        <v>0.04261032907502976</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08290308058153815</v>
+        <v>0.08454614775378991</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -3416,19 +3416,19 @@
         <v>64682</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47921</v>
+        <v>51042</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81462</v>
+        <v>84973</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05259236459115387</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03896403052681637</v>
+        <v>0.04150155728627811</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06623547710210516</v>
+        <v>0.06909040609532424</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>586148</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>574231</v>
+        <v>572739</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>595762</v>
+        <v>595749</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9551313630354294</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.93571309365462</v>
+        <v>0.9332817912177742</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9707972636842349</v>
+        <v>0.970777020786581</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>506</v>
@@ -3466,19 +3466,19 @@
         <v>579052</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>565114</v>
+        <v>564102</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>590134</v>
+        <v>589943</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9397154451254551</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9170969194184617</v>
+        <v>0.91545385224621</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9576996741126416</v>
+        <v>0.9573896709249702</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1028</v>
@@ -3487,19 +3487,19 @@
         <v>1165200</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1148420</v>
+        <v>1144909</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1181961</v>
+        <v>1178840</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9474076354088461</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9337645228978949</v>
+        <v>0.9309095939046758</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9610359694731836</v>
+        <v>0.9584984427137219</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>28335</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18836</v>
+        <v>18946</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39433</v>
+        <v>39909</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06628512090287608</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04406378372614866</v>
+        <v>0.04432244329157883</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09224919543674458</v>
+        <v>0.09336231273479521</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -3612,19 +3612,19 @@
         <v>60317</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46986</v>
+        <v>46662</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77358</v>
+        <v>75694</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1346965129778366</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.104925594782303</v>
+        <v>0.1042028939588283</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1727507611345636</v>
+        <v>0.1690349140121297</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -3633,19 +3633,19 @@
         <v>88652</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71227</v>
+        <v>72979</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>107274</v>
+        <v>108950</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1012855312359282</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08137715175041114</v>
+        <v>0.08337934908104726</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1225619403594168</v>
+        <v>0.1244771074094227</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>399130</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>388032</v>
+        <v>387556</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>408629</v>
+        <v>408519</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9337148790971239</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9077508045632554</v>
+        <v>0.9066376872652048</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9559362162738513</v>
+        <v>0.955677556708421</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>351</v>
@@ -3683,19 +3683,19 @@
         <v>387483</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>370442</v>
+        <v>372106</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>400814</v>
+        <v>401138</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8653034870221634</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8272492388654364</v>
+        <v>0.8309650859878719</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8950744052176969</v>
+        <v>0.8957971060411717</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>715</v>
@@ -3704,19 +3704,19 @@
         <v>786613</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>767991</v>
+        <v>766315</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>804038</v>
+        <v>802286</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8987144687640718</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8774380596405832</v>
+        <v>0.8755228925905769</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.918622848249589</v>
+        <v>0.9166206509189526</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>32574</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21030</v>
+        <v>22221</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45463</v>
+        <v>46697</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1054916028160209</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06810524089666127</v>
+        <v>0.07196094355749755</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1472299073939193</v>
+        <v>0.1512280062569357</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>65</v>
@@ -3829,19 +3829,19 @@
         <v>67301</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52280</v>
+        <v>53292</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>83185</v>
+        <v>84291</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1901167897218007</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1476846407205144</v>
+        <v>0.1505434298190435</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2349891174486882</v>
+        <v>0.2381123912125989</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -3850,19 +3850,19 @@
         <v>99875</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>83212</v>
+        <v>82886</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>124565</v>
+        <v>121008</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1506904112815496</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.125550035323065</v>
+        <v>0.1250582003913072</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1879425033386267</v>
+        <v>0.1825764134831917</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>276212</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263323</v>
+        <v>262089</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>287756</v>
+        <v>286565</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8945083971839791</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8527700926060804</v>
+        <v>0.8487719937430642</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9318947591033387</v>
+        <v>0.9280390564425024</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>279</v>
@@ -3900,19 +3900,19 @@
         <v>286695</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>270811</v>
+        <v>269705</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>301716</v>
+        <v>300704</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8098832102781993</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7650108825513119</v>
+        <v>0.7618876087874012</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8523153592794857</v>
+        <v>0.8494565701809567</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>532</v>
@@ -3921,19 +3921,19 @@
         <v>562907</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>538217</v>
+        <v>541774</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>579570</v>
+        <v>579896</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8493095887184504</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8120574966613732</v>
+        <v>0.8174235865168082</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8744499646769349</v>
+        <v>0.8749417996086928</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>50292</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>37482</v>
+        <v>37477</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65173</v>
+        <v>64729</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2030115787780716</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.151302282148997</v>
+        <v>0.1512794407641659</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2630815867789438</v>
+        <v>0.2612875349865377</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>114</v>
@@ -4046,19 +4046,19 @@
         <v>126662</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>108098</v>
+        <v>108455</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>145887</v>
+        <v>145717</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3256259713385827</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2779029876341249</v>
+        <v>0.2788185019559952</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3750518960421024</v>
+        <v>0.3746146290171504</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>157</v>
@@ -4067,19 +4067,19 @@
         <v>176954</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>153685</v>
+        <v>153221</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>201665</v>
+        <v>202540</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2779191742488117</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2413739140877618</v>
+        <v>0.2406448365619445</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3167295785800235</v>
+        <v>0.3181042826892668</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>197439</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>182558</v>
+        <v>183002</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>210249</v>
+        <v>210254</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7969884212219284</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7369184132210562</v>
+        <v>0.738712465013462</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8486977178510028</v>
+        <v>0.8487205592358341</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>236</v>
@@ -4117,19 +4117,19 @@
         <v>262317</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>243092</v>
+        <v>243262</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>280881</v>
+        <v>280524</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6743740286614174</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6249481039578977</v>
+        <v>0.6253853709828496</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7220970123658751</v>
+        <v>0.7211814980440048</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>413</v>
@@ -4138,19 +4138,19 @@
         <v>459756</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>435045</v>
+        <v>434170</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>483025</v>
+        <v>483489</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7220808257511884</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.683270421419977</v>
+        <v>0.6818957173107333</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7586260859122382</v>
+        <v>0.7593551634380554</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>172832</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>145703</v>
+        <v>149114</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>201146</v>
+        <v>204464</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05068866254906773</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04273204408488152</v>
+        <v>0.04373249883008606</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05899237088344188</v>
+        <v>0.05996548669425562</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>322</v>
@@ -4263,19 +4263,19 @@
         <v>350529</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>316763</v>
+        <v>316969</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>387949</v>
+        <v>387033</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09861697435913626</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08911752629493422</v>
+        <v>0.08917548409767231</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1091449138385561</v>
+        <v>0.108887025230179</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>477</v>
@@ -4284,19 +4284,19 @@
         <v>523361</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>480860</v>
+        <v>481451</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>568794</v>
+        <v>576244</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07515093654673236</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06904813381496258</v>
+        <v>0.06913295357508145</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08167479511650817</v>
+        <v>0.08274458088182093</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3236855</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3208541</v>
+        <v>3205223</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3263984</v>
+        <v>3260573</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9493113374509322</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9410076291165581</v>
+        <v>0.9400345133057444</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9572679559151184</v>
+        <v>0.9562675011699139</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2972</v>
@@ -4334,19 +4334,19 @@
         <v>3203915</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3166495</v>
+        <v>3167411</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3237681</v>
+        <v>3237475</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9013830256408637</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8908550861614439</v>
+        <v>0.8911129747698211</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9108824737050659</v>
+        <v>0.9108245159023277</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6010</v>
@@ -4355,19 +4355,19 @@
         <v>6440770</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6395337</v>
+        <v>6387887</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6483271</v>
+        <v>6482680</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9248490634532677</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9183252048834919</v>
+        <v>0.9172554191181793</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9309518661850374</v>
+        <v>0.9308670464249186</v>
       </c>
     </row>
     <row r="27">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7449</v>
+        <v>7454</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00510702699242496</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0179633643635107</v>
+        <v>0.0179749255555406</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4723,19 +4723,19 @@
         <v>2838</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>829</v>
+        <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7655</v>
+        <v>7860</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007170570009987218</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002094467953456162</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01934316599076676</v>
+        <v>0.0198599985088644</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4744,19 +4744,19 @@
         <v>4956</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1808</v>
+        <v>1093</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10837</v>
+        <v>10291</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006114673419040946</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002230288363971697</v>
+        <v>0.001348191303584241</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01337178527114504</v>
+        <v>0.0126975533989152</v>
       </c>
     </row>
     <row r="5">
@@ -4773,7 +4773,7 @@
         <v>412587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>407256</v>
+        <v>407251</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>414705</v>
@@ -4782,7 +4782,7 @@
         <v>0.9948929730075751</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9820366356364884</v>
+        <v>0.9820250744444593</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4794,19 +4794,19 @@
         <v>392917</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>388100</v>
+        <v>387895</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>394926</v>
+        <v>395755</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9928294299900128</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9806568340092333</v>
+        <v>0.9801400014911357</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9979055320465439</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>788</v>
@@ -4815,19 +4815,19 @@
         <v>805504</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>799623</v>
+        <v>800169</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>808652</v>
+        <v>809367</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9938853265809591</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9866282147288549</v>
+        <v>0.9873024466010846</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9977697116360282</v>
+        <v>0.9986518086964158</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>10360</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5171</v>
+        <v>5078</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19787</v>
+        <v>19283</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01772469760034815</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008847794170807236</v>
+        <v>0.008687503932935166</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03385512622485917</v>
+        <v>0.03299274268029304</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -4940,19 +4940,19 @@
         <v>17679</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10982</v>
+        <v>10532</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28396</v>
+        <v>26987</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03152836053783302</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01958483630292172</v>
+        <v>0.01878180232613397</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05063951209897217</v>
+        <v>0.04812701662234947</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -4961,19 +4961,19 @@
         <v>28039</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>18975</v>
+        <v>18143</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41342</v>
+        <v>40526</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02448350562857499</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0165693002335365</v>
+        <v>0.01584256551963643</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03610013175898835</v>
+        <v>0.03538706032019162</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>574114</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>564687</v>
+        <v>565191</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>579303</v>
+        <v>579396</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9822753023996519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9661448737751408</v>
+        <v>0.967007257319707</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9911522058291927</v>
+        <v>0.9913124960670651</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>559</v>
@@ -5011,19 +5011,19 @@
         <v>543063</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>532346</v>
+        <v>533755</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>549760</v>
+        <v>550210</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.968471639462167</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9493604879010281</v>
+        <v>0.9518729833776507</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9804151636970784</v>
+        <v>0.9812181976738662</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1112</v>
@@ -5032,19 +5032,19 @@
         <v>1117177</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1103874</v>
+        <v>1104690</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1126241</v>
+        <v>1127073</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.975516494371425</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9638998682410114</v>
+        <v>0.9646129396798083</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9834306997664632</v>
+        <v>0.9841574344803632</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>13134</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6772</v>
+        <v>6858</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22332</v>
+        <v>21965</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01977376712774262</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01019605403477918</v>
+        <v>0.01032514142462529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03362137865955026</v>
+        <v>0.03306808881863856</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -5157,19 +5157,19 @@
         <v>22365</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14390</v>
+        <v>14823</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34251</v>
+        <v>33834</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03419940978868183</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02200434650572178</v>
+        <v>0.02266652557754488</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05237435518854337</v>
+        <v>0.05173671991076776</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -5178,19 +5178,19 @@
         <v>35499</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24895</v>
+        <v>25722</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48743</v>
+        <v>48973</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02693048203936583</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01888611990375812</v>
+        <v>0.01951352301262184</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03697727887543446</v>
+        <v>0.03715192141196605</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>651087</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>641889</v>
+        <v>642256</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>657449</v>
+        <v>657363</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9802262328722574</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9663786213404496</v>
+        <v>0.9669319111813613</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9898039459652208</v>
+        <v>0.9896748585753745</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>635</v>
@@ -5228,19 +5228,19 @@
         <v>631602</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>619716</v>
+        <v>620133</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>639577</v>
+        <v>639144</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9658005902113181</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9476256448114566</v>
+        <v>0.9482632800892324</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9779956534942783</v>
+        <v>0.9773334744224551</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1256</v>
@@ -5249,19 +5249,19 @@
         <v>1282688</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1269444</v>
+        <v>1269214</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1293292</v>
+        <v>1292465</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9730695179606341</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9630227211245658</v>
+        <v>0.9628480785880337</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.981113880096242</v>
+        <v>0.9804864769873781</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>32019</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22783</v>
+        <v>21597</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46673</v>
+        <v>44786</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04986385910495636</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0354805302437684</v>
+        <v>0.0336337620479229</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07268549946067751</v>
+        <v>0.06974715611159571</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>41</v>
@@ -5374,19 +5374,19 @@
         <v>43949</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32015</v>
+        <v>32333</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58303</v>
+        <v>58434</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06801516386696965</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04954562713995381</v>
+        <v>0.05003813436478666</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09022975722904619</v>
+        <v>0.09043134700951841</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -5395,19 +5395,19 @@
         <v>75968</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58389</v>
+        <v>60253</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>93846</v>
+        <v>95380</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05896799381859816</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04532313509076642</v>
+        <v>0.04676951363773987</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07284550499962592</v>
+        <v>0.07403585970048339</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>610105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>595451</v>
+        <v>597338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>619341</v>
+        <v>620527</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9501361408950436</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9273145005393225</v>
+        <v>0.9302528438884043</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9645194697562316</v>
+        <v>0.9663662379520771</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>558</v>
@@ -5445,19 +5445,19 @@
         <v>602218</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>587864</v>
+        <v>587733</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>614152</v>
+        <v>613834</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9319848361330303</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.909770242770954</v>
+        <v>0.9095686529904816</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9504543728600464</v>
+        <v>0.9499618656352133</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1107</v>
@@ -5466,19 +5466,19 @@
         <v>1212323</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1194445</v>
+        <v>1192911</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1229902</v>
+        <v>1228038</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9410320061814018</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9271544950003739</v>
+        <v>0.9259641402995166</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9546768649092335</v>
+        <v>0.9532304863622596</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>20903</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12519</v>
+        <v>12907</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31397</v>
+        <v>30963</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04404211102916894</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02637781099845316</v>
+        <v>0.02719434384260365</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06615112912407116</v>
+        <v>0.06523714725932966</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>57</v>
@@ -5591,19 +5591,19 @@
         <v>64580</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49998</v>
+        <v>49442</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81040</v>
+        <v>81254</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.130868835139004</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1013201175603971</v>
+        <v>0.1001933759031433</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1642243051800593</v>
+        <v>0.1646579108079103</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -5612,19 +5612,19 @@
         <v>85483</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65877</v>
+        <v>67601</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>105432</v>
+        <v>105335</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08830075234547784</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06804864555173801</v>
+        <v>0.06982899556055169</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1089073376323122</v>
+        <v>0.1088071844054775</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>453717</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>443223</v>
+        <v>443657</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>462101</v>
+        <v>461713</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.955957888970831</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9338488708759289</v>
+        <v>0.9347628527406706</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.973622189001547</v>
+        <v>0.9728056561573966</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>373</v>
@@ -5662,19 +5662,19 @@
         <v>428889</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>412429</v>
+        <v>412215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>443471</v>
+        <v>444027</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8691311648609961</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8357756948199407</v>
+        <v>0.8353420891920899</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.898679882439603</v>
+        <v>0.8998066240968567</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>776</v>
@@ -5683,19 +5683,19 @@
         <v>882605</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>862656</v>
+        <v>862753</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>902211</v>
+        <v>900487</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9116992476545221</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.891092662367688</v>
+        <v>0.8911928155945222</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.931951354448262</v>
+        <v>0.9301710044394482</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>23465</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15258</v>
+        <v>15510</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34963</v>
+        <v>35402</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07040758967120084</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04578364334204518</v>
+        <v>0.0465372209840134</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1049086733977581</v>
+        <v>0.1062266783049595</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -5808,19 +5808,19 @@
         <v>57411</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42756</v>
+        <v>45012</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>72306</v>
+        <v>73305</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1523937869625606</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1134938823588505</v>
+        <v>0.1194813323128098</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1919312568659569</v>
+        <v>0.19458452564417</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>76</v>
@@ -5829,19 +5829,19 @@
         <v>80876</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>63842</v>
+        <v>63985</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>99118</v>
+        <v>99049</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1139097254145184</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08991842605345139</v>
+        <v>0.09012017086760631</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1396025463979236</v>
+        <v>0.1395055111474519</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>309806</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>298308</v>
+        <v>297869</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>318013</v>
+        <v>317761</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9295924103287991</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8950913266022421</v>
+        <v>0.8937733216950405</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9542163566579548</v>
+        <v>0.9534627790159869</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>299</v>
@@ -5879,19 +5879,19 @@
         <v>319316</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>304421</v>
+        <v>303422</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>333971</v>
+        <v>331715</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8476062130374394</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8080687431340431</v>
+        <v>0.8054154743558301</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8865061176411495</v>
+        <v>0.8805186676871899</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>601</v>
@@ -5900,19 +5900,19 @@
         <v>629122</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>610880</v>
+        <v>610949</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>646156</v>
+        <v>646013</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8860902745854816</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8603974536020764</v>
+        <v>0.8604944888525481</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9100815739465486</v>
+        <v>0.9098798291323934</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>37493</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27916</v>
+        <v>27147</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48495</v>
+        <v>47905</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1463357914186326</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1089541914869761</v>
+        <v>0.1059539865200839</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1892727550347109</v>
+        <v>0.186971457901806</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>86</v>
@@ -6025,19 +6025,19 @@
         <v>112924</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>93494</v>
+        <v>91330</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>133097</v>
+        <v>133420</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2857654152631415</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2365974603755407</v>
+        <v>0.2311205072948737</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3368151480619086</v>
+        <v>0.3376327513380302</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>130</v>
@@ -6046,19 +6046,19 @@
         <v>150417</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>130124</v>
+        <v>129524</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>173232</v>
+        <v>173788</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.230921593383752</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1997674390730279</v>
+        <v>0.1988462367475468</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2659471983992087</v>
+        <v>0.26680100878211</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>218722</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>207720</v>
+        <v>208310</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>228299</v>
+        <v>229068</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8536642085813674</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8107272449652891</v>
+        <v>0.8130285420981943</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.891045808513024</v>
+        <v>0.8940460134799163</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>211</v>
@@ -6096,19 +6096,19 @@
         <v>282238</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>262065</v>
+        <v>261742</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>301668</v>
+        <v>303832</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7142345847368585</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6631848519380915</v>
+        <v>0.6623672486619696</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7634025396244593</v>
+        <v>0.7688794927051262</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>468</v>
@@ -6117,19 +6117,19 @@
         <v>500960</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>478145</v>
+        <v>477589</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>521253</v>
+        <v>521853</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.769078406616248</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7340528016007917</v>
+        <v>0.73319899121789</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8002325609269721</v>
+        <v>0.8011537632524534</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>139492</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>117361</v>
+        <v>116539</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>163691</v>
+        <v>164071</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04139683275043778</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03482911346942774</v>
+        <v>0.03458501080628115</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04857821135948649</v>
+        <v>0.04869102937543862</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>280</v>
@@ -6242,19 +6242,19 @@
         <v>321746</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>286355</v>
+        <v>286611</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>360777</v>
+        <v>360555</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09135340691772915</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08130491345883166</v>
+        <v>0.08137765738361995</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1024354668091481</v>
+        <v>0.1023725688368086</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>416</v>
@@ -6263,19 +6263,19 @@
         <v>461238</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>419867</v>
+        <v>417736</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>509548</v>
+        <v>508150</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06692733705256877</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06092423118503892</v>
+        <v>0.06061502222879609</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0739373997854991</v>
+        <v>0.07373454442122625</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3230138</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3205939</v>
+        <v>3205559</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3252269</v>
+        <v>3253091</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9586031672495622</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9514217886405135</v>
+        <v>0.9513089706245613</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9651708865305723</v>
+        <v>0.9654149891937188</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3036</v>
@@ -6313,19 +6313,19 @@
         <v>3200243</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3161212</v>
+        <v>3161434</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3235634</v>
+        <v>3235378</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9086465930822708</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8975645331908519</v>
+        <v>0.8976274311631914</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9186950865411683</v>
+        <v>0.9186223426163801</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6108</v>
@@ -6334,19 +6334,19 @@
         <v>6430380</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6382070</v>
+        <v>6383468</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6471751</v>
+        <v>6473882</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9330726629474312</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9260626002145009</v>
+        <v>0.9262654555787739</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9390757688149611</v>
+        <v>0.9393849777712041</v>
       </c>
     </row>
     <row r="27">
@@ -6694,19 +6694,19 @@
         <v>9794</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2548</v>
+        <v>3381</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26367</v>
+        <v>24210</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02701639981359756</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007027898030985144</v>
+        <v>0.009327286463322702</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07273541328977624</v>
+        <v>0.06678399098912786</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6715,19 +6715,19 @@
         <v>9794</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2385</v>
+        <v>2414</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22985</v>
+        <v>25037</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01271414306610876</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003096585666054766</v>
+        <v>0.003133598022525385</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02983835293654724</v>
+        <v>0.03250285777566019</v>
       </c>
     </row>
     <row r="5">
@@ -6757,19 +6757,19 @@
         <v>352718</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>336145</v>
+        <v>338302</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>359964</v>
+        <v>359131</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9729836001864024</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9272645867102229</v>
+        <v>0.9332160090108721</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9929721019690132</v>
+        <v>0.9906727135366774</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>375</v>
@@ -6778,19 +6778,19 @@
         <v>760511</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>747320</v>
+        <v>745268</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>767920</v>
+        <v>767891</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9872858569338913</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9701616470634528</v>
+        <v>0.9674971422243399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9969034143339452</v>
+        <v>0.9968664019774746</v>
       </c>
     </row>
     <row r="6">
@@ -6882,19 +6882,19 @@
         <v>21173</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12445</v>
+        <v>11671</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35234</v>
+        <v>34471</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04439764953110153</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02609645111382937</v>
+        <v>0.02447406955399344</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07388261631115783</v>
+        <v>0.07228218019045356</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -6903,19 +6903,19 @@
         <v>14611</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8145</v>
+        <v>7872</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23739</v>
+        <v>24905</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02915919557376577</v>
+        <v>0.02915919557376576</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01625433417597061</v>
+        <v>0.01570984266500994</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04737488526797444</v>
+        <v>0.04970153208978258</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>27</v>
@@ -6924,19 +6924,19 @@
         <v>35784</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23212</v>
+        <v>24663</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>51172</v>
+        <v>50501</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03658994029647317</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0237351657634017</v>
+        <v>0.02521889841998655</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05232497663226413</v>
+        <v>0.05163863892639748</v>
       </c>
     </row>
     <row r="8">
@@ -6953,19 +6953,19 @@
         <v>455717</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>441656</v>
+        <v>442419</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>464445</v>
+        <v>465219</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9556023504688984</v>
+        <v>0.9556023504688985</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9261173836888419</v>
+        <v>0.9277178198095465</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9739035488861707</v>
+        <v>0.9755259304460067</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>447</v>
@@ -6974,19 +6974,19 @@
         <v>486472</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>477344</v>
+        <v>476178</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>492938</v>
+        <v>493211</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9708408044262341</v>
+        <v>0.9708408044262342</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.952625114732026</v>
+        <v>0.9502984679102184</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9837456658240297</v>
+        <v>0.9842901573349901</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>735</v>
@@ -6995,19 +6995,19 @@
         <v>942189</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>926801</v>
+        <v>927472</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>954761</v>
+        <v>953310</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9634100597035267</v>
+        <v>0.9634100597035268</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9476750233677358</v>
+        <v>0.9483613610736024</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9762648342365983</v>
+        <v>0.9747811015800135</v>
       </c>
     </row>
     <row r="9">
@@ -7099,19 +7099,19 @@
         <v>30893</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20498</v>
+        <v>21806</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43480</v>
+        <v>43491</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04976007781564563</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03301650145874577</v>
+        <v>0.03512309342416133</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0700343879583766</v>
+        <v>0.07005143957689468</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -7120,19 +7120,19 @@
         <v>36243</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27035</v>
+        <v>27284</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46574</v>
+        <v>47286</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05825513871307571</v>
+        <v>0.0582551387130757</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04345505862815349</v>
+        <v>0.04385541631568764</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07486049226570934</v>
+        <v>0.07600551944815324</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -7141,19 +7141,19 @@
         <v>67136</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52816</v>
+        <v>52939</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82753</v>
+        <v>82901</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05401205895724711</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04249189413340448</v>
+        <v>0.04259053424223302</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0665766706146643</v>
+        <v>0.06669546350463945</v>
       </c>
     </row>
     <row r="11">
@@ -7170,19 +7170,19 @@
         <v>589944</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>577357</v>
+        <v>577346</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>600339</v>
+        <v>599031</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9502399221843545</v>
+        <v>0.9502399221843543</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9299656120416235</v>
+        <v>0.9299485604231056</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9669834985412543</v>
+        <v>0.9648769065758387</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>795</v>
@@ -7191,19 +7191,19 @@
         <v>585896</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>575565</v>
+        <v>574853</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>595104</v>
+        <v>594855</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9417448612869243</v>
+        <v>0.9417448612869244</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9251395077342911</v>
+        <v>0.9239944805518467</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9565449413718469</v>
+        <v>0.9561445836843121</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1312</v>
@@ -7212,19 +7212,19 @@
         <v>1175840</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1160223</v>
+        <v>1160075</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1190160</v>
+        <v>1190037</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.945987941042753</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9334233293853359</v>
+        <v>0.9333045364953606</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9575081058665955</v>
+        <v>0.9574094657577672</v>
       </c>
     </row>
     <row r="12">
@@ -7316,19 +7316,19 @@
         <v>57892</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45186</v>
+        <v>44304</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75492</v>
+        <v>76366</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08262973717832994</v>
+        <v>0.08262973717832993</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06449477350457604</v>
+        <v>0.06323586341443151</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1077508135534678</v>
+        <v>0.1089982989980601</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -7337,19 +7337,19 @@
         <v>65587</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>53498</v>
+        <v>54317</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>78620</v>
+        <v>78513</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0890060449080286</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07260078024088934</v>
+        <v>0.07371143199478351</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1066925206571717</v>
+        <v>0.1065476190872827</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>154</v>
@@ -7358,19 +7358,19 @@
         <v>123479</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105420</v>
+        <v>102741</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>143481</v>
+        <v>144084</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08589833038648145</v>
+        <v>0.08589833038648147</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07333520631957292</v>
+        <v>0.07147153474265612</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09981239868326042</v>
+        <v>0.1002317722604895</v>
       </c>
     </row>
     <row r="14">
@@ -7387,19 +7387,19 @@
         <v>642725</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>625125</v>
+        <v>624251</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>655431</v>
+        <v>656313</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9173702628216703</v>
+        <v>0.91737026282167</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8922491864465323</v>
+        <v>0.8910017010019398</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9355052264954238</v>
+        <v>0.9367641365855685</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1041</v>
@@ -7408,19 +7408,19 @@
         <v>671299</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>658266</v>
+        <v>658373</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>683388</v>
+        <v>682569</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9109939550919715</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8933074793428285</v>
+        <v>0.8934523809127172</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9273992197591107</v>
+        <v>0.9262885680052164</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1652</v>
@@ -7429,19 +7429,19 @@
         <v>1314025</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1294023</v>
+        <v>1293420</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1332084</v>
+        <v>1334763</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9141016696135185</v>
+        <v>0.9141016696135187</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9001876013167397</v>
+        <v>0.8997682277395107</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9266647936804271</v>
+        <v>0.9285284652573438</v>
       </c>
     </row>
     <row r="15">
@@ -7533,19 +7533,19 @@
         <v>79586</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64463</v>
+        <v>64930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>96535</v>
+        <v>96604</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1311721058643702</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1062468421731733</v>
+        <v>0.1070169998150484</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.159108352921855</v>
+        <v>0.1592205473589399</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>148</v>
@@ -7554,19 +7554,19 @@
         <v>89711</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>77355</v>
+        <v>76333</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>104154</v>
+        <v>102420</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1473432938832717</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1270499031659724</v>
+        <v>0.1253712481142928</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1710654427410572</v>
+        <v>0.1682174198160751</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>235</v>
@@ -7575,19 +7575,19 @@
         <v>169297</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>148736</v>
+        <v>148946</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>191008</v>
+        <v>189916</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1392718474129127</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1223574366358891</v>
+        <v>0.1225304709528865</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1571326193543828</v>
+        <v>0.1562346807649692</v>
       </c>
     </row>
     <row r="17">
@@ -7604,19 +7604,19 @@
         <v>527142</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>510193</v>
+        <v>510124</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>542265</v>
+        <v>541798</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.86882789413563</v>
+        <v>0.8688278941356298</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8408916470781448</v>
+        <v>0.8407794526410602</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8937531578268266</v>
+        <v>0.8929830001849515</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>854</v>
@@ -7625,19 +7625,19 @@
         <v>519144</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>504701</v>
+        <v>506435</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>531500</v>
+        <v>532522</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8526567061167282</v>
+        <v>0.8526567061167284</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8289345572589427</v>
+        <v>0.8317825801839249</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8729500968340278</v>
+        <v>0.8746287518857073</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1428</v>
@@ -7646,19 +7646,19 @@
         <v>1046287</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1024576</v>
+        <v>1025668</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1066848</v>
+        <v>1066638</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8607281525870875</v>
+        <v>0.8607281525870872</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8428673806456173</v>
+        <v>0.8437653192350308</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8776425633641106</v>
+        <v>0.8774695290471136</v>
       </c>
     </row>
     <row r="18">
@@ -7750,19 +7750,19 @@
         <v>35724</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27924</v>
+        <v>27575</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45918</v>
+        <v>46051</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08775557435941309</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06859641092043603</v>
+        <v>0.06773759150767468</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1127974594347886</v>
+        <v>0.1131253702444394</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>134</v>
@@ -7771,19 +7771,19 @@
         <v>71217</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60768</v>
+        <v>60668</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82686</v>
+        <v>82767</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1626645103785994</v>
+        <v>0.1626645103785993</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1387972844590671</v>
+        <v>0.1385682313528263</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1888589437973606</v>
+        <v>0.1890442719227603</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>191</v>
@@ -7792,19 +7792,19 @@
         <v>106941</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>92478</v>
+        <v>93201</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>121092</v>
+        <v>122828</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1265726965510999</v>
+        <v>0.1265726965510998</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1094548544678426</v>
+        <v>0.1103108271304198</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1433210431478512</v>
+        <v>0.1453765633479244</v>
       </c>
     </row>
     <row r="20">
@@ -7821,19 +7821,19 @@
         <v>371356</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>361162</v>
+        <v>361029</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>379156</v>
+        <v>379505</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9122444256405869</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8872025405652115</v>
+        <v>0.8868746297555606</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.931403589079564</v>
+        <v>0.9322624084923253</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>691</v>
@@ -7842,19 +7842,19 @@
         <v>366601</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>355132</v>
+        <v>355051</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>377050</v>
+        <v>377150</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8373354896214008</v>
+        <v>0.8373354896214007</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8111410562026395</v>
+        <v>0.8109557280772396</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8612027155409332</v>
+        <v>0.8614317686471737</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1204</v>
@@ -7863,19 +7863,19 @@
         <v>737957</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>723806</v>
+        <v>722070</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>752420</v>
+        <v>751697</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8734273034489002</v>
+        <v>0.8734273034489003</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8566789568521487</v>
+        <v>0.8546234366520756</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8905451455321575</v>
+        <v>0.8896891728695803</v>
       </c>
     </row>
     <row r="21">
@@ -7967,19 +7967,19 @@
         <v>53953</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44269</v>
+        <v>43361</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65383</v>
+        <v>64688</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1744949791615265</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1431764497809844</v>
+        <v>0.1402379228939895</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2114617834695775</v>
+        <v>0.2092149221647182</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>341</v>
@@ -7988,19 +7988,19 @@
         <v>178386</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>163050</v>
+        <v>163041</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>194051</v>
+        <v>194560</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3865356458303612</v>
+        <v>0.3865356458303611</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3533044355017371</v>
+        <v>0.3532862503582504</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4204805011580537</v>
+        <v>0.4215835733187084</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>428</v>
@@ -8009,19 +8009,19 @@
         <v>232339</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>212917</v>
+        <v>212294</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>250782</v>
+        <v>253166</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3014671372319742</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2762671847974641</v>
+        <v>0.275458365022112</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3253982392451266</v>
+        <v>0.3284912124512553</v>
       </c>
     </row>
     <row r="23">
@@ -8038,19 +8038,19 @@
         <v>255241</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>243811</v>
+        <v>244506</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>264925</v>
+        <v>265833</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8255050208384733</v>
+        <v>0.8255050208384734</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7885382165304224</v>
+        <v>0.7907850778352818</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8568235502190156</v>
+        <v>0.8597620771060105</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>535</v>
@@ -8059,19 +8059,19 @@
         <v>283113</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>267448</v>
+        <v>266939</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>298449</v>
+        <v>298458</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6134643541696387</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5795194988419464</v>
+        <v>0.578416426681291</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6466955644982626</v>
+        <v>0.6467137496417495</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>905</v>
@@ -8080,19 +8080,19 @@
         <v>538354</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>519911</v>
+        <v>517527</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>557776</v>
+        <v>558399</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6985328627680257</v>
+        <v>0.6985328627680258</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6746017607548734</v>
+        <v>0.6715087875487447</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7237328152025357</v>
+        <v>0.724541634977888</v>
       </c>
     </row>
     <row r="24">
@@ -8184,19 +8184,19 @@
         <v>279220</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>248067</v>
+        <v>250623</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>310451</v>
+        <v>313178</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07911834155467362</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07029117548749465</v>
+        <v>0.07101535571182008</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08796790491231071</v>
+        <v>0.08874072557042276</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>791</v>
@@ -8205,19 +8205,19 @@
         <v>465549</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>432493</v>
+        <v>435122</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>493403</v>
+        <v>501722</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1247855704046189</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1159251507301171</v>
+        <v>0.1166299673061607</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1322513404187101</v>
+        <v>0.1344811845187305</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1119</v>
@@ -8226,19 +8226,19 @@
         <v>744769</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>699526</v>
+        <v>702495</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>789069</v>
+        <v>796742</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1025861891987821</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0963542912579205</v>
+        <v>0.09676330791643149</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1086882462007622</v>
+        <v>0.1097450438869753</v>
       </c>
     </row>
     <row r="26">
@@ -8255,19 +8255,19 @@
         <v>3249920</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3218689</v>
+        <v>3215962</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3281073</v>
+        <v>3278517</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9208816584453264</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9120320950876893</v>
+        <v>0.9112592744295772</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9297088245125052</v>
+        <v>0.9289846442881801</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4566</v>
@@ -8276,19 +8276,19 @@
         <v>3265245</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3237391</v>
+        <v>3229072</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3298301</v>
+        <v>3295672</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8752144295953812</v>
+        <v>0.875214429595381</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.86774865958129</v>
+        <v>0.8655188154812694</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.884074849269883</v>
+        <v>0.8833700326938393</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7611</v>
@@ -8297,19 +8297,19 @@
         <v>6515165</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6470865</v>
+        <v>6463192</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6560408</v>
+        <v>6557439</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8974138108012178</v>
+        <v>0.897413810801218</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8913117537992378</v>
+        <v>0.8902549561130247</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9036457087420793</v>
+        <v>0.9032366920835685</v>
       </c>
     </row>
     <row r="27">
